--- a/PinOrder/ELL-i_pin_order.xlsx
+++ b/PinOrder/ELL-i_pin_order.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <fileSharing readOnlyRecommended="1"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="32260" windowHeight="20500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15980" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - STM32F4-FPGA" sheetId="1" r:id="rId1"/>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D38" authorId="0">
+    <comment ref="D36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
             <color indexed="8"/>
             <rFont val="Lucida Grande"/>
           </rPr>
-          <t>Connect to FPGA anyway?</t>
+          <t>Connect to FPGA anyway.</t>
         </r>
       </text>
     </comment>
@@ -83,7 +82,7 @@
             <color indexed="8"/>
             <rFont val="Lucida Grande"/>
           </rPr>
-          <t>Connect to FPGA anyway.</t>
+          <t>Connect to FPGA anyway?</t>
         </r>
       </text>
     </comment>
@@ -184,7 +183,7 @@
     <t>PA 0</t>
   </si>
   <si>
-    <t>Arduino 1 A 0</t>
+    <t>Arduino A 0</t>
   </si>
   <si>
     <t>PA 2</t>
@@ -199,19 +198,19 @@
     <t>PC Card</t>
   </si>
   <si>
-    <t>Arduino 1 A 1</t>
+    <t>Arduino A 1 / 051: COMP2_INM</t>
   </si>
   <si>
     <t>PA 4</t>
   </si>
   <si>
-    <t>Arduino 1 A 2 / DAC1_OUT</t>
+    <t>Arduino A 2 / DAC1_OUT</t>
   </si>
   <si>
     <t>PA 5</t>
   </si>
   <si>
-    <t>Arduino 1 A 3 / DAC2_OUT</t>
+    <t>Arduino A 3 / DAC2_OUT</t>
   </si>
   <si>
     <t>PB 7</t>
@@ -226,7 +225,7 @@
     <t>LCD_B7</t>
   </si>
   <si>
-    <t>Arduino 1 A 4 / SDA</t>
+    <t>Arduino A 4 / SDA</t>
   </si>
   <si>
     <r>
@@ -259,7 +258,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Arduino 1 A 5 / </t>
+      <t xml:space="preserve">Arduino A 5 / </t>
     </r>
     <r>
       <rPr>
@@ -298,7 +297,7 @@
     <t>TIM1_CH3</t>
   </si>
   <si>
-    <t>Arduino 1 D 0 / USART1 RX</t>
+    <t>Arduino D 0 / USART1 RX</t>
   </si>
   <si>
     <t>PB23A</t>
@@ -313,7 +312,7 @@
     <t>TIM1_CH2</t>
   </si>
   <si>
-    <t>Arduino 1 D 1 / USART1 TX</t>
+    <t>Arduino D 1 / USART1 TX</t>
   </si>
   <si>
     <t>PB23B</t>
@@ -331,7 +330,7 @@
     <t>(TIM3_ETR)/TIM3_ CH2</t>
   </si>
   <si>
-    <t>Arduino 1 D 2</t>
+    <t>Arduino D 2</t>
   </si>
   <si>
     <r>
@@ -357,7 +356,7 @@
     <t>TIM1_CH4</t>
   </si>
   <si>
-    <t>Arduino 1 D 3 / CAN1_RX / USART1_CTS / DONE</t>
+    <t>Arduino D 3 / CAN1_RX / USART1_CTS / DONE</t>
   </si>
   <si>
     <r>
@@ -397,7 +396,7 @@
     <t>(TIM1_ETR)</t>
   </si>
   <si>
-    <t>Arduino 1 D 4 / CAN1_TX / USART1_RTS / INITN</t>
+    <t>Arduino D 4 / CAN1_TX / USART1_RTS / INITN</t>
   </si>
   <si>
     <t>—</t>
@@ -424,7 +423,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Arduino 1 D 5 </t>
+      <t xml:space="preserve">Arduino D 5 </t>
     </r>
     <r>
       <rPr>
@@ -467,7 +466,7 @@
   </si>
   <si>
     <r>
-      <t>Arduino 1 D 6 (</t>
+      <t>Arduino D 6 (</t>
     </r>
     <r>
       <rPr>
@@ -484,7 +483,7 @@
         <color indexed="9"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>)</t>
+      <t>) / 051: COMP2_INP</t>
     </r>
   </si>
   <si>
@@ -497,7 +496,7 @@
     <t>LCD_R6)++</t>
   </si>
   <si>
-    <t>Arduino 1 D 7</t>
+    <t>Arduino D 7</t>
   </si>
   <si>
     <t>PB15A</t>
@@ -521,7 +520,7 @@
     <t>LCD_R7)</t>
   </si>
   <si>
-    <t>Arduino 1 D 8 (For LQFP32, PB2 also used for SN)</t>
+    <t>Arduino D 8 (For LQFP32, PB2 also used for SN)</t>
   </si>
   <si>
     <t>PB15B</t>
@@ -537,7 +536,7 @@
   </si>
   <si>
     <r>
-      <t>Arduino 1 D 9 (</t>
+      <t>Arduino D 9 (</t>
     </r>
     <r>
       <rPr>
@@ -577,7 +576,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Arduino 1 D10 </t>
+      <t xml:space="preserve">Arduino D10 </t>
     </r>
     <r>
       <rPr>
@@ -653,7 +652,7 @@
     <t>TIM3_CH2</t>
   </si>
   <si>
-    <t>Arduino 1 D11 / MOSI (PWM) / CAN2_RX</t>
+    <t>Arduino D11 / MOSI (PWM) / CAN2_RX</t>
   </si>
   <si>
     <r>
@@ -685,7 +684,7 @@
     <t>TIM13_CH1/TIM16_CH1</t>
   </si>
   <si>
-    <t>Arduino 1 D12 / SPI1_MISO</t>
+    <t>Arduino D12 / SPI1_MISO</t>
   </si>
   <si>
     <r>
@@ -712,7 +711,7 @@
   </si>
   <si>
     <r>
-      <t>Arduino 1 D13 /</t>
+      <t>Arduino D13 /</t>
     </r>
     <r>
       <rPr>
@@ -762,13 +761,31 @@
     <t>PF 4</t>
   </si>
   <si>
+    <t>PF 9</t>
+  </si>
+  <si>
+    <t>FMC_CD</t>
+  </si>
+  <si>
+    <t>ELL-i  E 0 LVDS 1T</t>
+  </si>
+  <si>
+    <t>PB4A</t>
+  </si>
+  <si>
+    <t>PT10A</t>
+  </si>
+  <si>
+    <t>PF 5</t>
+  </si>
+  <si>
     <t>PF 8</t>
   </si>
   <si>
     <t>FMC_NIOWR</t>
   </si>
   <si>
-    <t>ELL-i  LVDS 1C</t>
+    <t>ELL-i  E 1 LVDS 1C</t>
   </si>
   <si>
     <t>PB4B</t>
@@ -777,22 +794,19 @@
     <t>PT10B</t>
   </si>
   <si>
-    <t>PF 5</t>
-  </si>
-  <si>
-    <t>PF 9</t>
-  </si>
-  <si>
-    <t>FMC_CD</t>
-  </si>
-  <si>
-    <t>ELL-i  LVDS 1T</t>
-  </si>
-  <si>
-    <t>PB4A</t>
-  </si>
-  <si>
-    <t>PT10A</t>
+    <t>PF 7</t>
+  </si>
+  <si>
+    <t>FMC_NREG</t>
+  </si>
+  <si>
+    <t>ELL-i  E 2 LVDS 2T</t>
+  </si>
+  <si>
+    <t>PB4C</t>
+  </si>
+  <si>
+    <t>PT11A</t>
   </si>
   <si>
     <t>PF10</t>
@@ -807,7 +821,7 @@
     <t>LCD_DE)</t>
   </si>
   <si>
-    <t>ELL-i  LVDS 2C</t>
+    <t>ELL-i  E 3 LVDS 2C</t>
   </si>
   <si>
     <t>PB4D</t>
@@ -816,88 +830,85 @@
     <t>PT11B</t>
   </si>
   <si>
-    <t>PF 7</t>
-  </si>
-  <si>
-    <t>FMC_NREG</t>
-  </si>
-  <si>
-    <t>ELL-i  LVDS 2T</t>
-  </si>
-  <si>
-    <t>PB4C</t>
-  </si>
-  <si>
-    <t>PT11A</t>
-  </si>
-  <si>
     <t>PC 0</t>
   </si>
   <si>
     <t>XX</t>
   </si>
   <si>
-    <t>ELL-i  LVDS 3C</t>
+    <t>ELL-i  E 4 LVDS 3T</t>
+  </si>
+  <si>
+    <t>PT21A</t>
+  </si>
+  <si>
+    <t>PC 1</t>
+  </si>
+  <si>
+    <t>ELL-i  E 5 LVDS 3C</t>
   </si>
   <si>
     <t>PT21B</t>
   </si>
   <si>
-    <t>PC 1</t>
-  </si>
-  <si>
-    <t>ELL-i  LVDS 3T</t>
-  </si>
-  <si>
-    <t>PT21A</t>
-  </si>
-  <si>
     <t>PC 2</t>
   </si>
   <si>
-    <t>ELL-i  LVDS 4C</t>
+    <t>ELL-i  E 6 LVDS 4T</t>
+  </si>
+  <si>
+    <t>PT27A</t>
+  </si>
+  <si>
+    <t>PC 3</t>
+  </si>
+  <si>
+    <t>ELL-i  E 7 LVDS 4C</t>
   </si>
   <si>
     <t>PT27B</t>
   </si>
   <si>
-    <t>PC 3</t>
-  </si>
-  <si>
-    <t>ELL-i  LVDS 4T</t>
-  </si>
-  <si>
-    <t>PT27A</t>
-  </si>
-  <si>
     <t>PC 4</t>
   </si>
   <si>
-    <t>ELL-i  LVDS 5C</t>
+    <t>PG 7</t>
+  </si>
+  <si>
+    <t>FMC_INT3</t>
+  </si>
+  <si>
+    <t>DCMI_D13)</t>
+  </si>
+  <si>
+    <t>LCD_CLK)</t>
+  </si>
+  <si>
+    <t>ELL-i  E 8 LVDS 5T</t>
+  </si>
+  <si>
+    <t>PT25A</t>
+  </si>
+  <si>
+    <t>PC 5</t>
+  </si>
+  <si>
+    <t>ELL-i  E 9 LVDS 5C</t>
   </si>
   <si>
     <t>PT25B</t>
   </si>
   <si>
-    <t>PC 5</t>
-  </si>
-  <si>
-    <t>PG 7</t>
-  </si>
-  <si>
-    <t>FMC_INT3</t>
-  </si>
-  <si>
-    <t>DCMI_D13)</t>
-  </si>
-  <si>
-    <t>LCD_CLK)</t>
-  </si>
-  <si>
-    <t>ELL-i  LVDS 5T</t>
-  </si>
-  <si>
-    <t>PT25A</t>
+    <t>PC 7</t>
+  </si>
+  <si>
+    <t>LCD_G6</t>
+  </si>
+  <si>
+    <t>ELL-i  E10 LVDS 6T</t>
+  </si>
+  <si>
+    <t>PT9A</t>
   </si>
   <si>
     <t>PC 6</t>
@@ -906,22 +917,53 @@
     <t>LCD_HSYNC</t>
   </si>
   <si>
-    <t>ELL-i  LVDS 6C</t>
+    <t>ELL-i  E11 LVDS 6C</t>
   </si>
   <si>
     <t>PT9B</t>
   </si>
   <si>
-    <t>PC 7</t>
-  </si>
-  <si>
-    <t>LCD_G6</t>
-  </si>
-  <si>
-    <t>ELL-i  LVDS 6T</t>
-  </si>
-  <si>
-    <t>PT9A</t>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>LCD_G5</t>
+  </si>
+  <si>
+    <r>
+      <t>ELL-i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>E12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> I2C2 SDA</t>
+    </r>
+  </si>
+  <si>
+    <t>PL5C</t>
+  </si>
+  <si>
+    <t>PT24B</t>
   </si>
   <si>
     <t>PB10</t>
@@ -931,7 +973,7 @@
   </si>
   <si>
     <r>
-      <t>ELL-i I</t>
+      <t>ELL-i E13 I</t>
     </r>
     <r>
       <rPr>
@@ -950,14 +992,11 @@
     <t>PT24A</t>
   </si>
   <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>LCD_G5</t>
-  </si>
-  <si>
-    <r>
-      <t>ELL-i</t>
+    <t>PB12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ELL-i E14 </t>
     </r>
     <r>
       <rPr>
@@ -966,21 +1005,38 @@
         <color indexed="9"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> I2C2 SDA</t>
-    </r>
-  </si>
-  <si>
-    <t>PL5C</t>
-  </si>
-  <si>
-    <t>PT24B</t>
+      <t>SPI2 SS / CAN2_RX</t>
+    </r>
+  </si>
+  <si>
+    <t>PB27A</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ELL-i E15 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>SPI2 MOSI</t>
+    </r>
+  </si>
+  <si>
+    <t>PB29B</t>
   </si>
   <si>
     <t>PB14</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ELL-i </t>
+      <t xml:space="preserve">ELL-i E16 </t>
     </r>
     <r>
       <rPr>
@@ -996,31 +1052,11 @@
     <t>PB29A</t>
   </si>
   <si>
-    <t>PB15</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ELL-i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>SPI2 MOSI</t>
-    </r>
-  </si>
-  <si>
-    <t>PB29B</t>
-  </si>
-  <si>
     <t>PB13</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ELL-i </t>
+      <t xml:space="preserve">ELL-i E17 </t>
     </r>
     <r>
       <rPr>
@@ -1036,11 +1072,14 @@
     <t>PB27B</t>
   </si>
   <si>
-    <t>PB12</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ELL-i </t>
+    <t>PC11</t>
+  </si>
+  <si>
+    <t>DCMI_D 4</t>
+  </si>
+  <si>
+    <r>
+      <t>ELL-i</t>
     </r>
     <r>
       <rPr>
@@ -1049,21 +1088,15 @@
         <color indexed="9"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>SPI2 SS / CAN2_RX</t>
-    </r>
-  </si>
-  <si>
-    <t>PB27A</t>
-  </si>
-  <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>DCMI_D 4</t>
-  </si>
-  <si>
-    <r>
-      <t>ELL-i</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">E18 </t>
     </r>
     <r>
       <rPr>
@@ -1072,7 +1105,7 @@
         <color indexed="9"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t xml:space="preserve"> USART3 RX</t>
+      <t>USART3 RX</t>
     </r>
     <r>
       <rPr>
@@ -1097,7 +1130,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ELL-i </t>
+      <t xml:space="preserve">ELL-i E19 </t>
     </r>
     <r>
       <rPr>
@@ -2812,8 +2845,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2827,7 +2860,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="215900" y="0"/>
-          <a:ext cx="6083300" cy="292100"/>
+          <a:ext cx="3149600" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2872,7 +2905,7 @@
               <a:ea typeface="Helvetica Neue"/>
               <a:cs typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>TODO: Think through chip selects, route SDRAM chip selects through FPGA?  (PB6, PC2, PB5)</a:t>
+            <a:t>TODO: PA7 not assigned in TQFP-64 STM32F0.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2888,7 +2921,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2902,7 +2935,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="215900" y="254000"/>
-          <a:ext cx="2171700" cy="292100"/>
+          <a:ext cx="2247900" cy="292100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2947,7 +2980,7 @@
               <a:ea typeface="Helvetica Neue"/>
               <a:cs typeface="Helvetica Neue"/>
             </a:rPr>
-            <a:t>TODO: FPGA clocks and PLLs.  </a:t>
+            <a:t>TODO: FPGA clocks and PLLs.    </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3477,7 +3510,7 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" customHeight="1">
+    <row r="3" spans="1:25" ht="15.25" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
@@ -3635,9 +3668,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="13"/>
-      <c r="O6" s="13">
-        <v>1</v>
-      </c>
+      <c r="O6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13">
@@ -3700,9 +3731,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="13"/>
-      <c r="O7" s="13">
-        <v>1</v>
-      </c>
+      <c r="O7" s="13"/>
       <c r="P7" s="17">
         <v>1</v>
       </c>
@@ -4341,9 +4370,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="13"/>
-      <c r="O18" s="13">
-        <v>1</v>
-      </c>
+      <c r="O18" s="13"/>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13">
@@ -4408,9 +4435,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="13"/>
-      <c r="O19" s="13">
-        <v>1</v>
-      </c>
+      <c r="O19" s="13"/>
       <c r="P19" s="17">
         <v>1</v>
       </c>
@@ -4475,9 +4500,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="13"/>
-      <c r="O20" s="13">
-        <v>1</v>
-      </c>
+      <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13">
@@ -4538,9 +4561,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="13"/>
-      <c r="O21" s="13">
-        <v>1</v>
-      </c>
+      <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13">
@@ -4604,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="S22" s="21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T22" s="21" t="s">
         <v>135</v>
@@ -4616,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="W22" s="21">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="X22" s="21" t="s">
         <v>136</v>
@@ -4661,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T23" s="21" t="s">
         <v>141</v>
@@ -4673,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="21">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X23" s="21" t="s">
         <v>142</v>
@@ -4685,11 +4706,11 @@
     <row r="24" spans="1:25" ht="14.25" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F24" s="20" t="s">
@@ -4698,15 +4719,11 @@
       <c r="G24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>146</v>
-      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="21"/>
@@ -4722,10 +4739,10 @@
         <v>1</v>
       </c>
       <c r="S24" s="21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T24" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U24" s="21">
         <v>2</v>
@@ -4734,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="W24" s="21">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="X24" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="Y24" s="21">
         <v>0</v>
@@ -4746,21 +4763,25 @@
     <row r="25" spans="1:25" ht="14.25" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
-        <v>150</v>
+      <c r="C25" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
-        <v>150</v>
+      <c r="E25" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="H25" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="J25" s="21"/>
       <c r="K25" s="21" t="s">
         <v>152</v>
@@ -4779,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T25" s="21" t="s">
         <v>153</v>
@@ -4791,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="W25" s="21">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X25" s="21" t="s">
         <v>154</v>
@@ -4810,7 +4831,7 @@
       <c r="E26" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="21"/>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
@@ -4836,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="W26" s="21">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="X26" s="21" t="s">
         <v>158</v>
@@ -4855,7 +4876,7 @@
       <c r="E27" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="21"/>
@@ -4881,7 +4902,7 @@
         <v>1</v>
       </c>
       <c r="W27" s="21">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X27" s="21" t="s">
         <v>161</v>
@@ -4924,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="W28" s="21">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X28" s="21" t="s">
         <v>164</v>
@@ -4967,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="W29" s="21">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X29" s="21" t="s">
         <v>167</v>
@@ -4984,15 +5005,23 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+        <v>169</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="J30" s="21"/>
       <c r="K30" s="21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="21"/>
@@ -5010,10 +5039,10 @@
         <v>1</v>
       </c>
       <c r="W30" s="21">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="X30" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Y30" s="21">
         <v>0</v>
@@ -5023,24 +5052,16 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>175</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21" t="s">
         <v>176</v>
@@ -5061,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="W31" s="21">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X31" s="21" t="s">
         <v>177</v>
@@ -5089,7 +5110,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>179</v>
@@ -5114,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="W32" s="21">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X32" s="21" t="s">
         <v>181</v>
@@ -5142,7 +5163,7 @@
       <c r="F33" s="21"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>183</v>
@@ -5167,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="W33" s="21">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X33" s="21" t="s">
         <v>185</v>
@@ -5207,14 +5228,16 @@
       <c r="N34" s="21">
         <v>1</v>
       </c>
-      <c r="O34" s="21"/>
+      <c r="O34" s="21">
+        <v>1</v>
+      </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21">
         <v>1</v>
       </c>
       <c r="S34" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" s="21" t="s">
         <v>189</v>
@@ -5226,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="W34" s="21">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="X34" s="21" t="s">
         <v>190</v>
@@ -5266,14 +5289,16 @@
       <c r="N35" s="21">
         <v>1</v>
       </c>
-      <c r="O35" s="21"/>
+      <c r="O35" s="21">
+        <v>1</v>
+      </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21">
         <v>1</v>
       </c>
       <c r="S35" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" s="21" t="s">
         <v>194</v>
@@ -5285,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="W35" s="21">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X35" s="21" t="s">
         <v>195</v>
@@ -5304,8 +5329,8 @@
       <c r="C36" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>196</v>
+      <c r="D36" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>196</v>
@@ -5334,7 +5359,7 @@
         <v>1</v>
       </c>
       <c r="W36" s="21">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="X36" s="21" t="s">
         <v>198</v>
@@ -5402,8 +5427,8 @@
       <c r="C38" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>186</v>
+      <c r="D38" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>202</v>
@@ -5432,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="21">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X38" s="21" t="s">
         <v>204</v>
@@ -5452,7 +5477,7 @@
         <v>205</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>205</v>
@@ -5481,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="W39" s="21">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="X39" s="21" t="s">
         <v>207</v>
@@ -5841,10 +5866,10 @@
         <v>76</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
@@ -5874,7 +5899,7 @@
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="31" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>226</v>
@@ -5907,7 +5932,7 @@
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="31" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E50" s="31" t="s">
         <v>228</v>
@@ -5940,7 +5965,7 @@
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>230</v>
@@ -6908,7 +6933,7 @@
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
       <c r="I70" s="40" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J70" s="41"/>
       <c r="K70" s="41" t="s">
@@ -6955,7 +6980,7 @@
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J71" s="41"/>
       <c r="K71" s="41" t="s">
@@ -7953,7 +7978,7 @@
         <v>41</v>
       </c>
       <c r="X96" s="41" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Y96" s="41">
         <v>2</v>
@@ -8502,7 +8527,7 @@
         <v>437</v>
       </c>
       <c r="H109" s="45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
@@ -10483,7 +10508,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM('Sheet 1 - STM32F4-FPGA'!O2:O154)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="6">
         <f>SUM('Sheet 1 - STM32F4-FPGA'!P2:P154)</f>

--- a/PinOrder/ELL-i_pin_order.xlsx
+++ b/PinOrder/ELL-i_pin_order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-20" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - STM32F4-FPGA" sheetId="1" r:id="rId1"/>
